--- a/notebooks/LAMB2/input/LAMB2_NPHS5_individuals.xlsx
+++ b/notebooks/LAMB2/input/LAMB2_NPHS5_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/LAMB2/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E0A105-EAB3-F94C-B5AF-C7328ABF9C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54E86FD-273E-4043-9FF5-C73DFC7A3C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="1720" windowWidth="23960" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21840" yWindow="4000" windowWidth="23960" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LAMB2_NPHS5_individuals_ARGC" sheetId="1" r:id="rId1"/>
@@ -855,48 +855,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -912,7 +912,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1236,7 +1236,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="12" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="12" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.2">
